--- a/libs/Euler_2ndRankTensorTransform.xlsx
+++ b/libs/Euler_2ndRankTensorTransform.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngung/onedrive/OneDrive - changwon.ac.kr/Lectures/2017Fall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngung/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-29840" yWindow="580" windowWidth="28000" windowHeight="17760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="580" windowWidth="28000" windowHeight="17760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -799,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="99" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I16" s="4">
         <f>MMULT(H9:J9,C16:C18)</f>
-        <v>0</v>
+        <v>-0.70710678118654746</v>
       </c>
       <c r="J16" s="4">
         <f>MMULT(H9:J9,D16:D18)</f>
@@ -1046,11 +1046,11 @@
       <c r="K16" s="2"/>
       <c r="L16" s="17">
         <f>MMULT(H16:J16,L9:L11)</f>
-        <v>0.50000000000000011</v>
+        <v>2.2204460492503131E-16</v>
       </c>
       <c r="M16" s="18">
         <f>MMULT(H16:J16,M9:M11)</f>
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="N16" s="19">
         <f>MMULT(H16:J16,N9:N11)</f>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="I17" s="4">
         <f>MMULT(H10:J10,C16:C18)</f>
-        <v>0</v>
+        <v>-0.70710678118654757</v>
       </c>
       <c r="J17" s="4">
         <f>MMULT(H10:J10,D16:D18)</f>
@@ -1082,11 +1082,11 @@
       <c r="K17" s="2"/>
       <c r="L17" s="20">
         <f>MMULT(H17:J17,L9:L11)</f>
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="M17" s="21">
         <f>MMULT(H17:J17,M9:M11)</f>
-        <v>0.49999999999999989</v>
+        <v>-2.2204460492503131E-16</v>
       </c>
       <c r="N17" s="22">
         <f>MMULT(H17:J17,N9:N11)</f>
@@ -1234,7 +1234,8 @@
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <v>0</v>
+        <f>C10</f>
+        <v>1</v>
       </c>
       <c r="H31" s="2">
         <f>E10</f>
@@ -1367,7 +1368,7 @@
       </c>
       <c r="C37" s="2">
         <f>MMULT(J31:L31,G30:G32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" s="2">
         <f>MMULT(J31:L31,H30:H32)</f>
@@ -1376,11 +1377,11 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2">
         <f>MMULT(B37:D37,B30:B32)</f>
-        <v>0</v>
+        <v>-0.70710678118654746</v>
       </c>
       <c r="G37" s="2">
         <f>MMULT(B37:D37,C30:C32)</f>
-        <v>0</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="H37" s="2">
         <f>MMULT(B37:D37,D30:D32)</f>

--- a/libs/Euler_2ndRankTensorTransform.xlsx
+++ b/libs/Euler_2ndRankTensorTransform.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngung/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngung/repo/youngung.github.io/libs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="28000" windowHeight="17760" tabRatio="500"/>
+    <workbookView xWindow="3460" yWindow="5860" windowWidth="33840" windowHeight="16520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -475,15 +475,111 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="mediumDashed">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -516,12 +612,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -797,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="99" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,11 +957,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F4" s="2">
         <f>E4*PI()/180</f>
-        <v>0.78539816339744828</v>
+        <v>0.52359877559829882</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -851,11 +972,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2">
         <f>E5*PI()/180</f>
-        <v>0</v>
+        <v>0.78539816339744828</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -889,22 +1010,22 @@
       </c>
       <c r="C9" s="2">
         <f>COS(F4)</f>
-        <v>0.70710678118654757</v>
+        <v>0.86602540378443871</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2">
         <f>SIN(F4)</f>
-        <v>0.70710678118654746</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="H9" s="3">
         <f>C11*C9-C10*E9*E11</f>
-        <v>0.70710678118654757</v>
+        <v>0.86602540378443871</v>
       </c>
       <c r="I9" s="3">
         <f>C11*E9+C10*C9*E11</f>
-        <v>0.70710678118654746</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="J9" s="3">
         <f>E11*E10</f>
@@ -913,15 +1034,15 @@
       <c r="K9" s="2"/>
       <c r="L9" s="3">
         <f>H9</f>
-        <v>0.70710678118654757</v>
+        <v>0.86602540378443871</v>
       </c>
       <c r="M9" s="3">
         <f>H10</f>
-        <v>-0.70710678118654746</v>
+        <v>-0.35355339059327373</v>
       </c>
       <c r="N9" s="3">
         <f>H11</f>
-        <v>0</v>
+        <v>0.35355339059327368</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -930,39 +1051,39 @@
       </c>
       <c r="C10" s="2">
         <f>COS(F5)</f>
-        <v>1</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2">
         <f>SIN(F5)</f>
-        <v>0</v>
+        <v>0.70710678118654746</v>
       </c>
       <c r="H10" s="3">
         <f>-E11*C9-C10*E9*C11</f>
-        <v>-0.70710678118654746</v>
+        <v>-0.35355339059327373</v>
       </c>
       <c r="I10" s="3">
         <f>-E11*E9+C10*C9*C11</f>
-        <v>0.70710678118654757</v>
+        <v>0.61237243569579458</v>
       </c>
       <c r="J10" s="3">
         <f>C11*E10</f>
-        <v>0</v>
+        <v>0.70710678118654746</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3">
         <f>I9</f>
-        <v>0.70710678118654746</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="M10" s="3">
         <f>I10</f>
-        <v>0.70710678118654757</v>
+        <v>0.61237243569579458</v>
       </c>
       <c r="N10" s="3">
         <f>I11</f>
-        <v>0</v>
+        <v>-0.61237243569579447</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -982,15 +1103,15 @@
       </c>
       <c r="H11" s="3">
         <f>E10*E9</f>
-        <v>0</v>
+        <v>0.35355339059327368</v>
       </c>
       <c r="I11" s="3">
         <f>-E10*C9</f>
-        <v>0</v>
+        <v>-0.61237243569579447</v>
       </c>
       <c r="J11" s="3">
         <f>C10</f>
-        <v>1</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="3">
@@ -999,11 +1120,11 @@
       </c>
       <c r="M11" s="3">
         <f>J10</f>
-        <v>0</v>
+        <v>0.70710678118654746</v>
       </c>
       <c r="N11" s="3">
         <f>J11</f>
-        <v>1</v>
+        <v>0.70710678118654757</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1023,7 +1144,7 @@
     </row>
     <row r="16" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
@@ -1033,11 +1154,11 @@
       </c>
       <c r="H16" s="4">
         <f>MMULT(H9:J9,B16:B18)</f>
-        <v>0.70710678118654757</v>
+        <v>0</v>
       </c>
       <c r="I16" s="4">
         <f>MMULT(H9:J9,C16:C18)</f>
-        <v>-0.70710678118654746</v>
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <f>MMULT(H9:J9,D16:D18)</f>
@@ -1046,54 +1167,54 @@
       <c r="K16" s="2"/>
       <c r="L16" s="17">
         <f>MMULT(H16:J16,L9:L11)</f>
-        <v>2.2204460492503131E-16</v>
+        <v>0</v>
       </c>
       <c r="M16" s="18">
         <f>MMULT(H16:J16,M9:M11)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="19">
         <f>MMULT(H16:J16,N9:N11)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B17" s="11">
         <v>0</v>
       </c>
       <c r="C17" s="12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
       </c>
       <c r="H17" s="4">
         <f>MMULT(H10:J10,B16:B18)</f>
-        <v>-0.70710678118654746</v>
+        <v>0</v>
       </c>
       <c r="I17" s="4">
         <f>MMULT(H10:J10,C16:C18)</f>
-        <v>-0.70710678118654757</v>
+        <v>0</v>
       </c>
       <c r="J17" s="4">
         <f>MMULT(H10:J10,D16:D18)</f>
-        <v>0</v>
+        <v>31.819805153394636</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="20">
         <f>MMULT(H17:J17,L9:L11)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="21">
         <f>MMULT(H17:J17,M9:M11)</f>
-        <v>-2.2204460492503131E-16</v>
+        <v>22.499999999999996</v>
       </c>
       <c r="N17" s="22">
         <f>MMULT(H17:J17,N9:N11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>0</v>
       </c>
@@ -1101,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="16">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="H18" s="4">
         <f>MMULT(H11:J11,B16:B18)</f>
@@ -1113,7 +1234,7 @@
       </c>
       <c r="J18" s="4">
         <f>MMULT(H11:J11,D16:D18)</f>
-        <v>0</v>
+        <v>31.81980515339464</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="23">
@@ -1122,15 +1243,16 @@
       </c>
       <c r="M18" s="24">
         <f>MMULT(H18:J18,M9:M11)</f>
-        <v>0</v>
+        <v>22.5</v>
       </c>
       <c r="N18" s="25">
         <f>MMULT(H18:J18,N9:N11)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>22.500000000000004</v>
+      </c>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -1138,40 +1260,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>1</v>
       </c>
       <c r="H21" s="29">
         <f>MMULT(H9:J9,B21:B23)</f>
-        <v>0.70710678118654757</v>
+        <v>0.86602540378443871</v>
       </c>
       <c r="I21" s="30">
         <f>MMULT(H10:J10,B21:B23)</f>
-        <v>-0.70710678118654746</v>
+        <v>-0.35355339059327373</v>
       </c>
       <c r="J21" s="31">
         <f>MMULT(H11:J11,B21:B23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>0.35355339059327368</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B28" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>18</v>
       </c>
@@ -1182,108 +1304,108 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="2">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B30" s="32">
         <f>C9</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="C30" s="2">
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="C30" s="33">
         <f>E9</f>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="D30" s="2">
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="D30" s="34">
         <v>0</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2">
+      <c r="F30" s="32">
         <v>1</v>
       </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
+      <c r="G30" s="33">
+        <v>0</v>
+      </c>
+      <c r="H30" s="34">
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2">
+      <c r="J30" s="32">
         <f>C11</f>
         <v>1</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="33">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="L30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B31" s="2">
+      <c r="L30" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B31" s="35">
         <f>-E9</f>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="C31" s="2">
+        <v>-0.49999999999999994</v>
+      </c>
+      <c r="C31" s="36">
         <f>C9</f>
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="D31" s="37">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="35">
+        <v>0</v>
+      </c>
+      <c r="G31" s="36">
+        <f>C10</f>
         <v>0.70710678118654757</v>
       </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <f>C10</f>
-        <v>1</v>
-      </c>
-      <c r="H31" s="2">
+      <c r="H31" s="37">
         <f>E10</f>
-        <v>0</v>
+        <v>0.70710678118654746</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2">
+      <c r="J31" s="35">
         <f>-E11</f>
         <v>0</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="36">
         <f>C11</f>
         <v>1</v>
       </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B32" s="2">
-        <v>0</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="L31" s="37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="38">
+        <v>0</v>
+      </c>
+      <c r="C32" s="39">
+        <v>0</v>
+      </c>
+      <c r="D32" s="40">
         <v>1</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
+      <c r="F32" s="38">
+        <v>0</v>
+      </c>
+      <c r="G32" s="39">
         <f>-E10</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="H32" s="40">
         <f>C10</f>
-        <v>1</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="2">
-        <v>0</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0</v>
-      </c>
-      <c r="L32" s="2">
+      <c r="J32" s="38">
+        <v>0</v>
+      </c>
+      <c r="K32" s="39">
+        <v>0</v>
+      </c>
+      <c r="L32" s="40">
         <v>1</v>
       </c>
     </row>
@@ -1313,7 +1435,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1330,29 +1452,29 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="2">
+    <row r="36" spans="2:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="32">
         <f>MMULT(J30:L30,F30:F32)</f>
         <v>1</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="33">
         <f>MMULT(J30:L30,G30:G32)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="34">
         <f>MMULT(J30:L30,H30:H32)</f>
         <v>0</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="2">
+      <c r="F36" s="17">
         <f>MMULT(B36:D36,B30:B32)</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="G36" s="2">
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="G36" s="18">
         <f>MMULT(B36:D36,C30:C32)</f>
-        <v>0.70710678118654746</v>
-      </c>
-      <c r="H36" s="2">
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="H36" s="19">
         <f>MMULT(B36:D36,D30:D32)</f>
         <v>0</v>
       </c>
@@ -1362,61 +1484,61 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="2">
+      <c r="B37" s="35">
         <f>MMULT(J31:L31,F30:F32)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="36">
         <f>MMULT(J31:L31,G30:G32)</f>
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
+        <v>0.70710678118654757</v>
+      </c>
+      <c r="D37" s="37">
         <f>MMULT(J31:L31,H30:H32)</f>
-        <v>0</v>
+        <v>0.70710678118654746</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="2">
+      <c r="F37" s="20">
         <f>MMULT(B37:D37,B30:B32)</f>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="G37" s="2">
+        <v>-0.35355339059327373</v>
+      </c>
+      <c r="G37" s="21">
         <f>MMULT(B37:D37,C30:C32)</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="H37" s="2">
+        <v>0.61237243569579458</v>
+      </c>
+      <c r="H37" s="22">
         <f>MMULT(B37:D37,D30:D32)</f>
-        <v>0</v>
+        <v>0.70710678118654746</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="2">
+    <row r="38" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="38">
         <f>MMULT(J32:L32,F30:F32)</f>
         <v>0</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="39">
         <f>MMULT(J32:L32,G30:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
+        <v>-0.70710678118654746</v>
+      </c>
+      <c r="D38" s="40">
         <f>MMULT(J32:L32,H30:H32)</f>
-        <v>1</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2">
+      <c r="F38" s="23">
         <f>MMULT(B38:D38,B30:B32)</f>
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
+        <v>0.35355339059327368</v>
+      </c>
+      <c r="G38" s="24">
         <f>MMULT(B38:D38,C30:C32)</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
+        <v>-0.61237243569579447</v>
+      </c>
+      <c r="H38" s="25">
         <f>MMULT(B38:D38,D30:D32)</f>
-        <v>1</v>
+        <v>0.70710678118654757</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>

--- a/libs/Euler_2ndRankTensorTransform.xlsx
+++ b/libs/Euler_2ndRankTensorTransform.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="5860" windowWidth="33840" windowHeight="16520" tabRatio="500"/>
+    <workbookView xWindow="41020" yWindow="1460" windowWidth="28000" windowHeight="17760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -475,111 +475,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top style="mediumDashed">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="mediumDashed">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="mediumDashed">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="mediumDashed">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="mediumDashed">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="mediumDashed">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="mediumDashed">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="mediumDashed">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="mediumDashed">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top/>
-      <bottom style="mediumDashed">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -609,40 +513,15 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -918,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,11 +836,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>E4*PI()/180</f>
-        <v>0.52359877559829882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -972,11 +851,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="6">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="F5" s="2">
         <f>E5*PI()/180</f>
-        <v>0.78539816339744828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -992,6 +871,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="9"/>
       <c r="H7" t="s">
         <v>16</v>
       </c>
@@ -1010,22 +890,22 @@
       </c>
       <c r="C9" s="2">
         <f>COS(F4)</f>
-        <v>0.86602540378443871</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2">
         <f>SIN(F4)</f>
-        <v>0.49999999999999994</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <f>C11*C9-C10*E9*E11</f>
-        <v>0.86602540378443871</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3">
         <f>C11*E9+C10*C9*E11</f>
-        <v>0.49999999999999994</v>
+        <v>0</v>
       </c>
       <c r="J9" s="3">
         <f>E11*E10</f>
@@ -1034,15 +914,15 @@
       <c r="K9" s="2"/>
       <c r="L9" s="3">
         <f>H9</f>
-        <v>0.86602540378443871</v>
+        <v>1</v>
       </c>
       <c r="M9" s="3">
         <f>H10</f>
-        <v>-0.35355339059327373</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <f>H11</f>
-        <v>0.35355339059327368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1051,39 +931,39 @@
       </c>
       <c r="C10" s="2">
         <f>COS(F5)</f>
-        <v>0.70710678118654757</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2">
         <f>SIN(F5)</f>
-        <v>0.70710678118654746</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <f>-E11*C9-C10*E9*C11</f>
-        <v>-0.35355339059327373</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <f>-E11*E9+C10*C9*C11</f>
-        <v>0.61237243569579458</v>
+        <v>1</v>
       </c>
       <c r="J10" s="3">
         <f>C11*E10</f>
-        <v>0.70710678118654746</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3">
         <f>I9</f>
-        <v>0.49999999999999994</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <f>I10</f>
-        <v>0.61237243569579458</v>
+        <v>1</v>
       </c>
       <c r="N10" s="3">
         <f>I11</f>
-        <v>-0.61237243569579447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1103,15 +983,15 @@
       </c>
       <c r="H11" s="3">
         <f>E10*E9</f>
-        <v>0.35355339059327368</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
         <f>-E10*C9</f>
-        <v>-0.61237243569579447</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
         <f>C10</f>
-        <v>0.70710678118654757</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="3">
@@ -1120,11 +1000,11 @@
       </c>
       <c r="M11" s="3">
         <f>J10</f>
-        <v>0.70710678118654746</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3">
         <f>J11</f>
-        <v>0.70710678118654757</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1144,7 +1024,7 @@
     </row>
     <row r="16" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
@@ -1154,7 +1034,7 @@
       </c>
       <c r="H16" s="4">
         <f>MMULT(H9:J9,B16:B18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
         <f>MMULT(H9:J9,C16:C18)</f>
@@ -1167,7 +1047,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="17">
         <f>MMULT(H16:J16,L9:L11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="18">
         <f>MMULT(H16:J16,M9:M11)</f>
@@ -1178,7 +1058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="11">
         <v>0</v>
       </c>
@@ -1198,7 +1078,7 @@
       </c>
       <c r="J17" s="4">
         <f>MMULT(H10:J10,D16:D18)</f>
-        <v>31.819805153394636</v>
+        <v>0</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="20">
@@ -1207,14 +1087,14 @@
       </c>
       <c r="M17" s="21">
         <f>MMULT(H17:J17,M9:M11)</f>
-        <v>22.499999999999996</v>
+        <v>0</v>
       </c>
       <c r="N17" s="22">
         <f>MMULT(H17:J17,N9:N11)</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="14">
         <v>0</v>
       </c>
@@ -1222,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="16">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4">
         <f>MMULT(H11:J11,B16:B18)</f>
@@ -1234,7 +1114,7 @@
       </c>
       <c r="J18" s="4">
         <f>MMULT(H11:J11,D16:D18)</f>
-        <v>31.81980515339464</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="23">
@@ -1243,16 +1123,15 @@
       </c>
       <c r="M18" s="24">
         <f>MMULT(H18:J18,M9:M11)</f>
-        <v>22.5</v>
+        <v>0</v>
       </c>
       <c r="N18" s="25">
         <f>MMULT(H18:J18,N9:N11)</f>
-        <v>22.500000000000004</v>
-      </c>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>26</v>
       </c>
@@ -1260,40 +1139,40 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5">
         <v>1</v>
       </c>
       <c r="H21" s="29">
         <f>MMULT(H9:J9,B21:B23)</f>
-        <v>0.86602540378443871</v>
+        <v>1</v>
       </c>
       <c r="I21" s="30">
         <f>MMULT(H10:J10,B21:B23)</f>
-        <v>-0.35355339059327373</v>
+        <v>0</v>
       </c>
       <c r="J21" s="31">
         <f>MMULT(H11:J11,B21:B23)</f>
-        <v>0.35355339059327368</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B22" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>18</v>
       </c>
@@ -1304,108 +1183,108 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B30" s="32">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
         <f>C9</f>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="C30" s="33">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
         <f>E9</f>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="D30" s="34">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
         <v>0</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="32">
-        <v>1</v>
-      </c>
-      <c r="G30" s="33">
-        <v>0</v>
-      </c>
-      <c r="H30" s="34">
+      <c r="F30" s="2">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
         <v>0</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="32">
+      <c r="J30" s="2">
         <f>C11</f>
         <v>1</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="2">
         <f>E11</f>
         <v>0</v>
       </c>
-      <c r="L30" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B31" s="35">
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
         <f>-E9</f>
-        <v>-0.49999999999999994</v>
-      </c>
-      <c r="C31" s="36">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
         <f>C9</f>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="D31" s="37">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
         <v>0</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="35">
-        <v>0</v>
-      </c>
-      <c r="G31" s="36">
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
         <f>C10</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="H31" s="37">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
         <f>E10</f>
-        <v>0.70710678118654746</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="35">
+      <c r="J31" s="2">
         <f>-E11</f>
         <v>0</v>
       </c>
-      <c r="K31" s="36">
+      <c r="K31" s="2">
         <f>C11</f>
         <v>1</v>
       </c>
-      <c r="L31" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="38">
-        <v>0</v>
-      </c>
-      <c r="C32" s="39">
-        <v>0</v>
-      </c>
-      <c r="D32" s="40">
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>0</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
         <v>1</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="38">
-        <v>0</v>
-      </c>
-      <c r="G32" s="39">
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
         <f>-E10</f>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="H32" s="40">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
         <f>C10</f>
-        <v>0.70710678118654757</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="38">
-        <v>0</v>
-      </c>
-      <c r="K32" s="39">
-        <v>0</v>
-      </c>
-      <c r="L32" s="40">
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1435,7 +1314,7 @@
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
     </row>
-    <row r="35" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
@@ -1452,29 +1331,29 @@
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
     </row>
-    <row r="36" spans="2:12" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="32">
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
         <f>MMULT(J30:L30,F30:F32)</f>
         <v>1</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="2">
         <f>MMULT(J30:L30,G30:G32)</f>
         <v>0</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="2">
         <f>MMULT(J30:L30,H30:H32)</f>
         <v>0</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="17">
+      <c r="F36" s="2">
         <f>MMULT(B36:D36,B30:B32)</f>
-        <v>0.86602540378443871</v>
-      </c>
-      <c r="G36" s="18">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2">
         <f>MMULT(B36:D36,C30:C32)</f>
-        <v>0.49999999999999994</v>
-      </c>
-      <c r="H36" s="19">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
         <f>MMULT(B36:D36,D30:D32)</f>
         <v>0</v>
       </c>
@@ -1484,61 +1363,61 @@
       <c r="L36" s="2"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="35">
+      <c r="B37" s="2">
         <f>MMULT(J31:L31,F30:F32)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="2">
         <f>MMULT(J31:L31,G30:G32)</f>
-        <v>0.70710678118654757</v>
-      </c>
-      <c r="D37" s="37">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
         <f>MMULT(J31:L31,H30:H32)</f>
-        <v>0.70710678118654746</v>
+        <v>0</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="20">
+      <c r="F37" s="2">
         <f>MMULT(B37:D37,B30:B32)</f>
-        <v>-0.35355339059327373</v>
-      </c>
-      <c r="G37" s="21">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
         <f>MMULT(B37:D37,C30:C32)</f>
-        <v>0.61237243569579458</v>
-      </c>
-      <c r="H37" s="22">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
         <f>MMULT(B37:D37,D30:D32)</f>
-        <v>0.70710678118654746</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="2:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="38">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="2">
         <f>MMULT(J32:L32,F30:F32)</f>
         <v>0</v>
       </c>
-      <c r="C38" s="39">
+      <c r="C38" s="2">
         <f>MMULT(J32:L32,G30:G32)</f>
-        <v>-0.70710678118654746</v>
-      </c>
-      <c r="D38" s="40">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
         <f>MMULT(J32:L32,H30:H32)</f>
-        <v>0.70710678118654757</v>
+        <v>1</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="23">
+      <c r="F38" s="2">
         <f>MMULT(B38:D38,B30:B32)</f>
-        <v>0.35355339059327368</v>
-      </c>
-      <c r="G38" s="24">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
         <f>MMULT(B38:D38,C30:C32)</f>
-        <v>-0.61237243569579447</v>
-      </c>
-      <c r="H38" s="25">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
         <f>MMULT(B38:D38,D30:D32)</f>
-        <v>0.70710678118654757</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>

--- a/libs/Euler_2ndRankTensorTransform.xlsx
+++ b/libs/Euler_2ndRankTensorTransform.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="41020" yWindow="1460" windowWidth="28000" windowHeight="17760" tabRatio="500"/>
+    <workbookView xWindow="680" yWindow="7280" windowWidth="20920" windowHeight="15140" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -476,8 +476,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -517,11 +537,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -800,7 +840,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="B15" sqref="B15:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,11 +876,11 @@
         <v>1</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2">
         <f>E4*PI()/180</f>
-        <v>0</v>
+        <v>0.17453292519943295</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -851,11 +891,11 @@
         <v>2</v>
       </c>
       <c r="E5" s="6">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F5" s="2">
         <f>E5*PI()/180</f>
-        <v>0</v>
+        <v>0.95993108859688125</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -863,11 +903,11 @@
         <v>3</v>
       </c>
       <c r="E6" s="7">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F6" s="2">
         <f>E6*PI()/180</f>
-        <v>0</v>
+        <v>-0.17453292519943295</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -890,39 +930,39 @@
       </c>
       <c r="C9" s="2">
         <f>COS(F4)</f>
-        <v>1</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="2">
         <f>SIN(F4)</f>
-        <v>0</v>
+        <v>0.17364817766693033</v>
       </c>
       <c r="H9" s="3">
         <f>C11*C9-C10*E9*E11</f>
-        <v>1</v>
+        <v>0.98714175622059896</v>
       </c>
       <c r="I9" s="3">
         <f>C11*E9+C10*C9*E11</f>
-        <v>0</v>
+        <v>7.2922724178328791E-2</v>
       </c>
       <c r="J9" s="3">
         <f>E11*E10</f>
-        <v>0</v>
+        <v>-0.14224425972292404</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="3">
         <f>H9</f>
-        <v>1</v>
+        <v>0.98714175622059896</v>
       </c>
       <c r="M9" s="3">
         <f>H10</f>
-        <v>0</v>
+        <v>7.2922724178328777E-2</v>
       </c>
       <c r="N9" s="3">
         <f>H11</f>
-        <v>0</v>
+        <v>0.14224425972292404</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -931,39 +971,39 @@
       </c>
       <c r="C10" s="2">
         <f>COS(F5)</f>
-        <v>1</v>
+        <v>0.57357643635104616</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2">
         <f>SIN(F5)</f>
-        <v>0</v>
+        <v>0.8191520442889918</v>
       </c>
       <c r="H10" s="3">
         <f>-E11*C9-C10*E9*C11</f>
-        <v>0</v>
+        <v>7.2922724178328777E-2</v>
       </c>
       <c r="I10" s="3">
         <f>-E11*E9+C10*C9*C11</f>
-        <v>1</v>
+        <v>0.58643468013044697</v>
       </c>
       <c r="J10" s="3">
         <f>C11*E10</f>
-        <v>0</v>
+        <v>0.80670728411159875</v>
       </c>
       <c r="K10" s="2"/>
       <c r="L10" s="3">
         <f>I9</f>
-        <v>0</v>
+        <v>7.2922724178328791E-2</v>
       </c>
       <c r="M10" s="3">
         <f>I10</f>
-        <v>1</v>
+        <v>0.58643468013044697</v>
       </c>
       <c r="N10" s="3">
         <f>I11</f>
-        <v>0</v>
+        <v>-0.80670728411159875</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -972,39 +1012,39 @@
       </c>
       <c r="C11" s="2">
         <f>COS(F6)</f>
-        <v>1</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="2">
         <f>SIN(F6)</f>
-        <v>0</v>
+        <v>-0.17364817766693033</v>
       </c>
       <c r="H11" s="3">
         <f>E10*E9</f>
-        <v>0</v>
+        <v>0.14224425972292404</v>
       </c>
       <c r="I11" s="3">
         <f>-E10*C9</f>
-        <v>0</v>
+        <v>-0.80670728411159875</v>
       </c>
       <c r="J11" s="3">
         <f>C10</f>
-        <v>1</v>
+        <v>0.57357643635104616</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="3">
         <f>J9</f>
-        <v>0</v>
+        <v>-0.14224425972292404</v>
       </c>
       <c r="M11" s="3">
         <f>J10</f>
-        <v>0</v>
+        <v>0.80670728411159875</v>
       </c>
       <c r="N11" s="3">
         <f>J11</f>
-        <v>1</v>
+        <v>0.57357643635104616</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1024,7 +1064,7 @@
     </row>
     <row r="16" spans="1:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C16" s="9">
         <v>0</v>
@@ -1034,24 +1074,24 @@
       </c>
       <c r="H16" s="4">
         <f>MMULT(H9:J9,B16:B18)</f>
-        <v>1</v>
+        <v>98.714175622059898</v>
       </c>
       <c r="I16" s="4">
         <f>MMULT(H9:J9,C16:C18)</f>
-        <v>0</v>
+        <v>7.2922724178328791</v>
       </c>
       <c r="J16" s="4">
         <f>MMULT(H9:J9,D16:D18)</f>
-        <v>0</v>
+        <v>-14.224425972292403</v>
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="17">
         <f>MMULT(H16:J16,L9:L11)</f>
-        <v>1</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="M16" s="18">
         <f>MMULT(H16:J16,M9:M11)</f>
-        <v>0</v>
+        <v>-5.3290705182007514E-15</v>
       </c>
       <c r="N16" s="19">
         <f>MMULT(H16:J16,N9:N11)</f>
@@ -1063,31 +1103,31 @@
         <v>0</v>
       </c>
       <c r="C17" s="12">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D17" s="13">
         <v>0</v>
       </c>
       <c r="H17" s="4">
         <f>MMULT(H10:J10,B16:B18)</f>
-        <v>0</v>
+        <v>7.2922724178328773</v>
       </c>
       <c r="I17" s="4">
         <f>MMULT(H10:J10,C16:C18)</f>
-        <v>0</v>
+        <v>58.643468013044696</v>
       </c>
       <c r="J17" s="4">
         <f>MMULT(H10:J10,D16:D18)</f>
-        <v>0</v>
+        <v>80.670728411159871</v>
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="20">
         <f>MMULT(H17:J17,L9:L11)</f>
-        <v>0</v>
+        <v>-5.3290705182007514E-15</v>
       </c>
       <c r="M17" s="21">
         <f>MMULT(H17:J17,M9:M11)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N17" s="22">
         <f>MMULT(H17:J17,N9:N11)</f>
@@ -1102,24 +1142,24 @@
         <v>0</v>
       </c>
       <c r="D18" s="16">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H18" s="4">
         <f>MMULT(H11:J11,B16:B18)</f>
-        <v>0</v>
+        <v>14.224425972292403</v>
       </c>
       <c r="I18" s="4">
         <f>MMULT(H11:J11,C16:C18)</f>
-        <v>0</v>
+        <v>-80.670728411159871</v>
       </c>
       <c r="J18" s="4">
         <f>MMULT(H11:J11,D16:D18)</f>
-        <v>0</v>
+        <v>57.357643635104615</v>
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="23">
         <f>MMULT(H18:J18,L9:L11)</f>
-        <v>0</v>
+        <v>-1.7763568394002505E-15</v>
       </c>
       <c r="M18" s="24">
         <f>MMULT(H18:J18,M9:M11)</f>
@@ -1127,7 +1167,7 @@
       </c>
       <c r="N18" s="25">
         <f>MMULT(H18:J18,N9:N11)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
@@ -1145,15 +1185,15 @@
       </c>
       <c r="H21" s="29">
         <f>MMULT(H9:J9,B21:B23)</f>
-        <v>1</v>
+        <v>0.98714175622059896</v>
       </c>
       <c r="I21" s="30">
         <f>MMULT(H10:J10,B21:B23)</f>
-        <v>0</v>
+        <v>7.2922724178328777E-2</v>
       </c>
       <c r="J21" s="31">
         <f>MMULT(H11:J11,B21:B23)</f>
-        <v>0</v>
+        <v>0.14224425972292404</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="17" thickTop="1" x14ac:dyDescent="0.2">
@@ -1186,11 +1226,11 @@
     <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="2">
         <f>C9</f>
-        <v>1</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="C30" s="2">
         <f>E9</f>
-        <v>0</v>
+        <v>0.17364817766693033</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -1208,11 +1248,11 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2">
         <f>C11</f>
-        <v>1</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="K30" s="2">
         <f>E11</f>
-        <v>0</v>
+        <v>-0.17364817766693033</v>
       </c>
       <c r="L30" s="2">
         <v>0</v>
@@ -1221,11 +1261,11 @@
     <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="2">
         <f>-E9</f>
-        <v>0</v>
+        <v>-0.17364817766693033</v>
       </c>
       <c r="C31" s="2">
         <f>C9</f>
-        <v>1</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="D31" s="2">
         <v>0</v>
@@ -1236,20 +1276,20 @@
       </c>
       <c r="G31" s="2">
         <f>C10</f>
-        <v>1</v>
+        <v>0.57357643635104616</v>
       </c>
       <c r="H31" s="2">
         <f>E10</f>
-        <v>0</v>
+        <v>0.8191520442889918</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2">
         <f>-E11</f>
-        <v>0</v>
+        <v>0.17364817766693033</v>
       </c>
       <c r="K31" s="2">
         <f>C11</f>
-        <v>1</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="L31" s="2">
         <v>0</v>
@@ -1271,11 +1311,11 @@
       </c>
       <c r="G32" s="2">
         <f>-E10</f>
-        <v>0</v>
+        <v>-0.8191520442889918</v>
       </c>
       <c r="H32" s="2">
         <f>C10</f>
-        <v>1</v>
+        <v>0.57357643635104616</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2">
@@ -1334,28 +1374,28 @@
     <row r="36" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B36" s="2">
         <f>MMULT(J30:L30,F30:F32)</f>
-        <v>1</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="C36" s="2">
         <f>MMULT(J30:L30,G30:G32)</f>
-        <v>0</v>
+        <v>-9.9600502925051224E-2</v>
       </c>
       <c r="D36" s="2">
         <f>MMULT(J30:L30,H30:H32)</f>
-        <v>0</v>
+        <v>-0.14224425972292404</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2">
         <f>MMULT(B36:D36,B30:B32)</f>
-        <v>1</v>
+        <v>0.98714175622059896</v>
       </c>
       <c r="G36" s="2">
         <f>MMULT(B36:D36,C30:C32)</f>
-        <v>0</v>
+        <v>7.2922724178328777E-2</v>
       </c>
       <c r="H36" s="2">
         <f>MMULT(B36:D36,D30:D32)</f>
-        <v>0</v>
+        <v>-0.14224425972292404</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -1365,28 +1405,28 @@
     <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="2">
         <f>MMULT(J31:L31,F30:F32)</f>
-        <v>0</v>
+        <v>0.17364817766693033</v>
       </c>
       <c r="C37" s="2">
         <f>MMULT(J31:L31,G30:G32)</f>
-        <v>1</v>
+        <v>0.56486252146362348</v>
       </c>
       <c r="D37" s="2">
         <f>MMULT(J31:L31,H30:H32)</f>
-        <v>0</v>
+        <v>0.80670728411159875</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2">
         <f>MMULT(B37:D37,B30:B32)</f>
-        <v>0</v>
+        <v>7.2922724178328791E-2</v>
       </c>
       <c r="G37" s="2">
         <f>MMULT(B37:D37,C30:C32)</f>
-        <v>1</v>
+        <v>0.58643468013044697</v>
       </c>
       <c r="H37" s="2">
         <f>MMULT(B37:D37,D30:D32)</f>
-        <v>0</v>
+        <v>0.80670728411159875</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -1400,24 +1440,24 @@
       </c>
       <c r="C38" s="2">
         <f>MMULT(J32:L32,G30:G32)</f>
-        <v>0</v>
+        <v>-0.8191520442889918</v>
       </c>
       <c r="D38" s="2">
         <f>MMULT(J32:L32,H30:H32)</f>
-        <v>1</v>
+        <v>0.57357643635104616</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2">
         <f>MMULT(B38:D38,B30:B32)</f>
-        <v>0</v>
+        <v>0.14224425972292404</v>
       </c>
       <c r="G38" s="2">
         <f>MMULT(B38:D38,C30:C32)</f>
-        <v>0</v>
+        <v>-0.80670728411159875</v>
       </c>
       <c r="H38" s="2">
         <f>MMULT(B38:D38,D30:D32)</f>
-        <v>1</v>
+        <v>0.57357643635104616</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
